--- a/_files/requirements/master_data/master-registration_center.xlsx
+++ b/_files/requirements/master_data/master-registration_center.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0104E3F7-D3BA-47AA-AC3E-B094DE4C1487}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7916C0C2-E914-40BB-91CC-6A8B7D1FA5BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-registration_center" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -524,6 +524,39 @@
   </si>
   <si>
     <t>بلدية مناصرة الريفية</t>
+  </si>
+  <si>
+    <t>zone_code</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>YSF</t>
+  </si>
+  <si>
+    <t>TTA</t>
+  </si>
+  <si>
+    <t>TZT</t>
+  </si>
+  <si>
+    <t>Center Rabat</t>
+  </si>
+  <si>
+    <t>مركز الرباط</t>
   </si>
 </sst>
 </file>
@@ -1365,18 +1398,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1438,19 +1472,22 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1512,19 +1549,22 @@
         <v>30</v>
       </c>
       <c r="U2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="b">
+      <c r="W2" t="b">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -1586,19 +1626,22 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="V3" t="b">
+      <c r="W3" t="b">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>32</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1660,19 +1703,22 @@
         <v>30</v>
       </c>
       <c r="U4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" t="b">
+      <c r="W4" t="b">
         <v>1</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>32</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -1734,19 +1780,22 @@
         <v>30</v>
       </c>
       <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
         <v>31</v>
       </c>
-      <c r="V5" t="b">
+      <c r="W5" t="b">
         <v>1</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>32</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -1808,19 +1857,22 @@
         <v>30</v>
       </c>
       <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" t="b">
+      <c r="W6" t="b">
         <v>1</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>32</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10002</v>
       </c>
@@ -1882,19 +1934,22 @@
         <v>30</v>
       </c>
       <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="V7" t="b">
+      <c r="W7" t="b">
         <v>1</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>32</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10003</v>
       </c>
@@ -1956,19 +2011,22 @@
         <v>30</v>
       </c>
       <c r="U8" t="s">
+        <v>169</v>
+      </c>
+      <c r="V8" t="s">
         <v>31</v>
       </c>
-      <c r="V8" t="b">
+      <c r="W8" t="b">
         <v>1</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>32</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10003</v>
       </c>
@@ -2030,19 +2088,22 @@
         <v>30</v>
       </c>
       <c r="U9" t="s">
+        <v>169</v>
+      </c>
+      <c r="V9" t="s">
         <v>39</v>
       </c>
-      <c r="V9" t="b">
+      <c r="W9" t="b">
         <v>1</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>32</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10003</v>
       </c>
@@ -2104,19 +2165,22 @@
         <v>30</v>
       </c>
       <c r="U10" t="s">
+        <v>169</v>
+      </c>
+      <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="V10" t="b">
+      <c r="W10" t="b">
         <v>1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>32</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10004</v>
       </c>
@@ -2178,19 +2242,22 @@
         <v>30</v>
       </c>
       <c r="U11" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" t="s">
         <v>31</v>
       </c>
-      <c r="V11" t="b">
+      <c r="W11" t="b">
         <v>1</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>32</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10004</v>
       </c>
@@ -2252,19 +2319,22 @@
         <v>30</v>
       </c>
       <c r="U12" t="s">
+        <v>111</v>
+      </c>
+      <c r="V12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="b">
+      <c r="W12" t="b">
         <v>1</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>32</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10004</v>
       </c>
@@ -2326,19 +2396,22 @@
         <v>30</v>
       </c>
       <c r="U13" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13" t="s">
         <v>43</v>
       </c>
-      <c r="V13" t="b">
+      <c r="W13" t="b">
         <v>1</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>32</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10005</v>
       </c>
@@ -2400,19 +2473,22 @@
         <v>30</v>
       </c>
       <c r="U14" t="s">
+        <v>170</v>
+      </c>
+      <c r="V14" t="s">
         <v>31</v>
       </c>
-      <c r="V14" t="b">
+      <c r="W14" t="b">
         <v>1</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>32</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10005</v>
       </c>
@@ -2474,19 +2550,22 @@
         <v>30</v>
       </c>
       <c r="U15" t="s">
+        <v>170</v>
+      </c>
+      <c r="V15" t="s">
         <v>39</v>
       </c>
-      <c r="V15" t="b">
+      <c r="W15" t="b">
         <v>1</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>32</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -2548,19 +2627,22 @@
         <v>30</v>
       </c>
       <c r="U16" t="s">
+        <v>170</v>
+      </c>
+      <c r="V16" t="s">
         <v>43</v>
       </c>
-      <c r="V16" t="b">
+      <c r="W16" t="b">
         <v>1</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>32</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -2622,19 +2704,22 @@
         <v>30</v>
       </c>
       <c r="U17" t="s">
+        <v>171</v>
+      </c>
+      <c r="V17" t="s">
         <v>31</v>
       </c>
-      <c r="V17" t="b">
+      <c r="W17" t="b">
         <v>1</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>32</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10006</v>
       </c>
@@ -2696,19 +2781,22 @@
         <v>30</v>
       </c>
       <c r="U18" t="s">
+        <v>171</v>
+      </c>
+      <c r="V18" t="s">
         <v>39</v>
       </c>
-      <c r="V18" t="b">
+      <c r="W18" t="b">
         <v>1</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>32</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10006</v>
       </c>
@@ -2770,19 +2858,22 @@
         <v>30</v>
       </c>
       <c r="U19" t="s">
+        <v>171</v>
+      </c>
+      <c r="V19" t="s">
         <v>43</v>
       </c>
-      <c r="V19" t="b">
+      <c r="W19" t="b">
         <v>1</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>32</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10007</v>
       </c>
@@ -2844,19 +2935,22 @@
         <v>30</v>
       </c>
       <c r="U20" t="s">
+        <v>172</v>
+      </c>
+      <c r="V20" t="s">
         <v>31</v>
       </c>
-      <c r="V20" t="b">
+      <c r="W20" t="b">
         <v>1</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>32</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10007</v>
       </c>
@@ -2918,19 +3012,22 @@
         <v>30</v>
       </c>
       <c r="U21" t="s">
+        <v>172</v>
+      </c>
+      <c r="V21" t="s">
         <v>39</v>
       </c>
-      <c r="V21" t="b">
+      <c r="W21" t="b">
         <v>1</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>32</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10007</v>
       </c>
@@ -2992,19 +3089,22 @@
         <v>30</v>
       </c>
       <c r="U22" t="s">
+        <v>172</v>
+      </c>
+      <c r="V22" t="s">
         <v>43</v>
       </c>
-      <c r="V22" t="b">
+      <c r="W22" t="b">
         <v>1</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>32</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10008</v>
       </c>
@@ -3066,19 +3166,22 @@
         <v>30</v>
       </c>
       <c r="U23" t="s">
+        <v>173</v>
+      </c>
+      <c r="V23" t="s">
         <v>31</v>
       </c>
-      <c r="V23" t="b">
+      <c r="W23" t="b">
         <v>1</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>32</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10008</v>
       </c>
@@ -3140,19 +3243,22 @@
         <v>30</v>
       </c>
       <c r="U24" t="s">
+        <v>173</v>
+      </c>
+      <c r="V24" t="s">
         <v>39</v>
       </c>
-      <c r="V24" t="b">
+      <c r="W24" t="b">
         <v>1</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>32</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>10008</v>
       </c>
@@ -3214,19 +3320,22 @@
         <v>30</v>
       </c>
       <c r="U25" t="s">
+        <v>173</v>
+      </c>
+      <c r="V25" t="s">
         <v>43</v>
       </c>
-      <c r="V25" t="b">
+      <c r="W25" t="b">
         <v>1</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>32</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10009</v>
       </c>
@@ -3288,19 +3397,22 @@
         <v>111</v>
       </c>
       <c r="U26" t="s">
+        <v>174</v>
+      </c>
+      <c r="V26" t="s">
         <v>31</v>
       </c>
-      <c r="V26" t="b">
+      <c r="W26" t="b">
         <v>1</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>32</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10009</v>
       </c>
@@ -3362,19 +3474,22 @@
         <v>111</v>
       </c>
       <c r="U27" t="s">
+        <v>174</v>
+      </c>
+      <c r="V27" t="s">
         <v>39</v>
       </c>
-      <c r="V27" t="b">
+      <c r="W27" t="b">
         <v>1</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>32</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>10009</v>
       </c>
@@ -3436,19 +3551,22 @@
         <v>111</v>
       </c>
       <c r="U28" t="s">
+        <v>174</v>
+      </c>
+      <c r="V28" t="s">
         <v>43</v>
       </c>
-      <c r="V28" t="b">
+      <c r="W28" t="b">
         <v>1</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>32</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10010</v>
       </c>
@@ -3510,19 +3628,22 @@
         <v>111</v>
       </c>
       <c r="U29" t="s">
+        <v>175</v>
+      </c>
+      <c r="V29" t="s">
         <v>31</v>
       </c>
-      <c r="V29" t="b">
+      <c r="W29" t="b">
         <v>1</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>32</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10010</v>
       </c>
@@ -3584,19 +3705,22 @@
         <v>111</v>
       </c>
       <c r="U30" t="s">
+        <v>175</v>
+      </c>
+      <c r="V30" t="s">
         <v>39</v>
       </c>
-      <c r="V30" t="b">
+      <c r="W30" t="b">
         <v>1</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>32</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10010</v>
       </c>
@@ -3658,19 +3782,22 @@
         <v>111</v>
       </c>
       <c r="U31" t="s">
+        <v>175</v>
+      </c>
+      <c r="V31" t="s">
         <v>43</v>
       </c>
-      <c r="V31" t="b">
+      <c r="W31" t="b">
         <v>1</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>32</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10011</v>
       </c>
@@ -3732,19 +3859,22 @@
         <v>111</v>
       </c>
       <c r="U32" t="s">
+        <v>176</v>
+      </c>
+      <c r="V32" t="s">
         <v>31</v>
       </c>
-      <c r="V32" t="b">
+      <c r="W32" t="b">
         <v>1</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>32</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>10011</v>
       </c>
@@ -3806,19 +3936,22 @@
         <v>111</v>
       </c>
       <c r="U33" t="s">
+        <v>176</v>
+      </c>
+      <c r="V33" t="s">
         <v>39</v>
       </c>
-      <c r="V33" t="b">
+      <c r="W33" t="b">
         <v>1</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>32</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10011</v>
       </c>
@@ -3880,19 +4013,22 @@
         <v>111</v>
       </c>
       <c r="U34" t="s">
+        <v>176</v>
+      </c>
+      <c r="V34" t="s">
         <v>43</v>
       </c>
-      <c r="V34" t="b">
+      <c r="W34" t="b">
         <v>1</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>32</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10012</v>
       </c>
@@ -3954,19 +4090,22 @@
         <v>111</v>
       </c>
       <c r="U35" t="s">
+        <v>173</v>
+      </c>
+      <c r="V35" t="s">
         <v>31</v>
       </c>
-      <c r="V35" t="b">
+      <c r="W35" t="b">
         <v>1</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>32</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10012</v>
       </c>
@@ -4028,19 +4167,22 @@
         <v>111</v>
       </c>
       <c r="U36" t="s">
+        <v>173</v>
+      </c>
+      <c r="V36" t="s">
         <v>39</v>
       </c>
-      <c r="V36" t="b">
+      <c r="W36" t="b">
         <v>1</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>32</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10012</v>
       </c>
@@ -4102,19 +4244,22 @@
         <v>111</v>
       </c>
       <c r="U37" t="s">
+        <v>173</v>
+      </c>
+      <c r="V37" t="s">
         <v>43</v>
       </c>
-      <c r="V37" t="b">
+      <c r="W37" t="b">
         <v>1</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>32</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10013</v>
       </c>
@@ -4176,19 +4321,22 @@
         <v>111</v>
       </c>
       <c r="U38" t="s">
+        <v>174</v>
+      </c>
+      <c r="V38" t="s">
         <v>31</v>
       </c>
-      <c r="V38" t="b">
+      <c r="W38" t="b">
         <v>1</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>32</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10013</v>
       </c>
@@ -4250,19 +4398,22 @@
         <v>111</v>
       </c>
       <c r="U39" t="s">
+        <v>174</v>
+      </c>
+      <c r="V39" t="s">
         <v>39</v>
       </c>
-      <c r="V39" t="b">
+      <c r="W39" t="b">
         <v>1</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>32</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10013</v>
       </c>
@@ -4324,19 +4475,22 @@
         <v>111</v>
       </c>
       <c r="U40" t="s">
+        <v>174</v>
+      </c>
+      <c r="V40" t="s">
         <v>43</v>
       </c>
-      <c r="V40" t="b">
+      <c r="W40" t="b">
         <v>1</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>32</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10014</v>
       </c>
@@ -4398,19 +4552,22 @@
         <v>111</v>
       </c>
       <c r="U41" t="s">
+        <v>175</v>
+      </c>
+      <c r="V41" t="s">
         <v>31</v>
       </c>
-      <c r="V41" t="b">
+      <c r="W41" t="b">
         <v>1</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>32</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10014</v>
       </c>
@@ -4472,19 +4629,22 @@
         <v>111</v>
       </c>
       <c r="U42" t="s">
+        <v>175</v>
+      </c>
+      <c r="V42" t="s">
         <v>39</v>
       </c>
-      <c r="V42" t="b">
+      <c r="W42" t="b">
         <v>1</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>32</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>10014</v>
       </c>
@@ -4546,19 +4706,22 @@
         <v>111</v>
       </c>
       <c r="U43" t="s">
+        <v>175</v>
+      </c>
+      <c r="V43" t="s">
         <v>43</v>
       </c>
-      <c r="V43" t="b">
+      <c r="W43" t="b">
         <v>1</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>32</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10015</v>
       </c>
@@ -4620,19 +4783,22 @@
         <v>111</v>
       </c>
       <c r="U44" t="s">
+        <v>176</v>
+      </c>
+      <c r="V44" t="s">
         <v>31</v>
       </c>
-      <c r="V44" t="b">
+      <c r="W44" t="b">
         <v>1</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>32</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10015</v>
       </c>
@@ -4694,19 +4860,22 @@
         <v>111</v>
       </c>
       <c r="U45" t="s">
+        <v>176</v>
+      </c>
+      <c r="V45" t="s">
         <v>39</v>
       </c>
-      <c r="V45" t="b">
+      <c r="W45" t="b">
         <v>1</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>32</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>10015</v>
       </c>
@@ -4768,15 +4937,249 @@
         <v>111</v>
       </c>
       <c r="U46" t="s">
+        <v>176</v>
+      </c>
+      <c r="V46" t="s">
         <v>43</v>
       </c>
-      <c r="V46" t="b">
+      <c r="W46" t="b">
         <v>1</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>32</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>33333</v>
+      </c>
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47">
+        <v>33.521169999999998</v>
+      </c>
+      <c r="H47">
+        <v>-5.4532749999999997</v>
+      </c>
+      <c r="I47">
+        <v>14022</v>
+      </c>
+      <c r="J47">
+        <v>779517433</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47">
+        <v>12</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S47" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" t="s">
+        <v>111</v>
+      </c>
+      <c r="U47" t="s">
+        <v>111</v>
+      </c>
+      <c r="V47" t="s">
+        <v>31</v>
+      </c>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>33333</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>33.521169999999998</v>
+      </c>
+      <c r="H48">
+        <v>-5.4532749999999997</v>
+      </c>
+      <c r="I48">
+        <v>14022</v>
+      </c>
+      <c r="J48">
+        <v>944945765</v>
+      </c>
+      <c r="K48" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S48" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" t="s">
+        <v>111</v>
+      </c>
+      <c r="U48" t="s">
+        <v>111</v>
+      </c>
+      <c r="V48" t="s">
+        <v>39</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>33333</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49">
+        <v>33.521169999999998</v>
+      </c>
+      <c r="H49">
+        <v>-5.4532749999999997</v>
+      </c>
+      <c r="I49">
+        <v>14022</v>
+      </c>
+      <c r="J49">
+        <v>993556086</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S49" t="s">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s">
+        <v>111</v>
+      </c>
+      <c r="U49" t="s">
+        <v>111</v>
+      </c>
+      <c r="V49" t="s">
+        <v>43</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y49" t="s">
         <v>33</v>
       </c>
     </row>
